--- a/Excel/AudioTable.xlsx
+++ b/Excel/AudioTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +55,20 @@
   </si>
   <si>
     <t>Sound/death</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,224 +419,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1004</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1005</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1007</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1008</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1009</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1010</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2004</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2005</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2006</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2013</v>
       </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2016</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2017</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2018</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2020</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
